--- a/results/table_items.xlsx
+++ b/results/table_items.xlsx
@@ -116,7 +116,7 @@
     <t xml:space="preserve">GS7.2: Self sanctions</t>
   </si>
   <si>
-    <t xml:space="preserve">Sanctions are applied by and to the members of the group for violations of extraction rules</t>
+    <t xml:space="preserve">Graduated sanctions are applied by and to the members of the group for violations of extraction rules</t>
   </si>
   <si>
     <t xml:space="preserve">GS7.3: External sanctions</t>

--- a/results/table_items.xlsx
+++ b/results/table_items.xlsx
@@ -179,7 +179,7 @@
     <t xml:space="preserve">O2.3: Invasives</t>
   </si>
   <si>
-    <t xml:space="preserve">Invasive species do not pose a threat to this resource</t>
+    <t xml:space="preserve">The problem of invasive species has declined</t>
   </si>
 </sst>
 </file>
